--- a/bots/crawl_ch/output/vegi_coop_2023-02-14.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2023-02-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O472"/>
+  <dimension ref="A1:O473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -1822,7 +1822,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -1940,7 +1940,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -2143,7 +2143,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -2212,7 +2212,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -2342,7 +2342,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -2407,7 +2407,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -2545,7 +2545,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -2614,7 +2614,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -2752,7 +2752,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -2821,7 +2821,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -2890,7 +2890,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -2943,7 +2943,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -3008,7 +3008,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -3142,7 +3142,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -3406,7 +3406,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -3678,7 +3678,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -3954,7 +3954,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -4092,7 +4092,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -4157,7 +4157,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -4295,7 +4295,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -4360,7 +4360,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -4478,7 +4478,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -4616,7 +4616,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -4685,7 +4685,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -4750,7 +4750,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -4819,7 +4819,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4888,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -5034,7 +5034,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -5103,7 +5103,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -5172,7 +5172,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -5241,7 +5241,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -5310,7 +5310,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -5379,7 +5379,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -5448,7 +5448,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -5513,7 +5513,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -5582,7 +5582,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -5651,7 +5651,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -5720,7 +5720,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -5789,7 +5789,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -5858,7 +5858,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5927,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -5992,7 +5992,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -6065,7 +6065,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -6203,7 +6203,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -6272,7 +6272,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -6337,7 +6337,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -6406,7 +6406,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -6475,7 +6475,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -6544,7 +6544,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -6613,7 +6613,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -6686,7 +6686,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -6755,7 +6755,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -6820,7 +6820,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -6958,7 +6958,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -7027,7 +7027,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -7096,7 +7096,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -7159,13 +7159,13 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kräuterseitling ca. 100g 2.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Kräuterseitling ca. 100g - Online kein Bestand 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -7238,7 +7238,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -7307,7 +7307,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -7376,7 +7376,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -7441,7 +7441,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -7510,7 +7510,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -7579,7 +7579,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -7652,7 +7652,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -7721,7 +7721,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -7786,7 +7786,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -7837,7 +7837,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -7906,7 +7906,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -7975,7 +7975,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -8048,7 +8048,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -8190,7 +8190,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -8332,7 +8332,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -8385,7 +8385,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -8458,7 +8458,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -8527,7 +8527,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -8596,7 +8596,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -8665,7 +8665,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -8730,7 +8730,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -8803,7 +8803,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -8876,7 +8876,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -9014,7 +9014,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -9083,7 +9083,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -9148,7 +9148,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -9217,7 +9217,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -9282,7 +9282,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -9355,7 +9355,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -9424,7 +9424,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -9497,7 +9497,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -9562,7 +9562,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -9627,7 +9627,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -9692,7 +9692,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -9761,7 +9761,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -9834,7 +9834,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -9903,7 +9903,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -9972,7 +9972,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -10045,7 +10045,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -10118,7 +10118,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -10187,7 +10187,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -10256,7 +10256,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -10321,7 +10321,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -10390,7 +10390,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -10459,7 +10459,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -10532,41 +10532,45 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>7107925</t>
+          <t>5971361</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Erdbeeren 500g</t>
+          <t>Champignons braun</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/trauben-beeren/beeren/erdbeeren/p/7107925</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pilze/champignons-braun/p/5971361</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E150" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F150" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>0.95/100g</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -10576,7 +10580,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -10586,56 +10590,52 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'trauben-beeren', 'beeren']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pilze']</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>Erdbeeren 500g 4.50 Schweizer Franken</t>
+          <t>Champignons braun 2.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>6825749</t>
+          <t>7107925</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Prix Garantie Mischsalat</t>
+          <t>Erdbeeren 500g</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/prix-garantie-mischsalat/p/6825749</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/trauben-beeren/beeren/erdbeeren/p/7107925</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E151" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>0.71/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -10645,7 +10645,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -10655,43 +10655,39 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'trauben-beeren', 'beeren']</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>Prix Garantie Mischsalat 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Erdbeeren 500g 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>5971361</t>
+          <t>6825749</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Champignons braun</t>
+          <t>Prix Garantie Mischsalat</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pilze/champignons-braun/p/5971361</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/prix-garantie-mischsalat/p/6825749</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E152" t="n">
         <v>4.5</v>
@@ -10703,12 +10699,12 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>0.95/100g</t>
+          <t>0.71/100g</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -10718,7 +10714,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -10728,18 +10724,22 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pilze']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>Champignons braun 2.85 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N152" t="inlineStr"/>
+          <t>Prix Garantie Mischsalat 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -10806,7 +10806,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -10871,7 +10871,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -10940,7 +10940,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -11005,7 +11005,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -11068,13 +11068,13 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Regio Shiitake-Pilze Züribiet ca. 100g 3.20 Schweizer Franken</t>
+          <t>Naturaplan Bio Regio Shiitake-Pilze Züribiet ca. 100g - Online kein Bestand 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -11143,7 +11143,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -11216,7 +11216,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -11281,7 +11281,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -11350,7 +11350,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -11415,7 +11415,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -11480,7 +11480,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -11618,7 +11618,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -11687,7 +11687,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -11752,7 +11752,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -11821,7 +11821,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -11890,7 +11890,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -11959,7 +11959,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -12024,7 +12024,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -12093,7 +12093,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -12142,7 +12142,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -12211,7 +12211,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -12284,7 +12284,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -12357,7 +12357,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -12430,7 +12430,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -12495,7 +12495,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -12564,7 +12564,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -12633,7 +12633,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -12706,7 +12706,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -12775,7 +12775,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -12848,7 +12848,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -12895,7 +12895,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -12964,7 +12964,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -13033,7 +13033,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -13098,7 +13098,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -13171,7 +13171,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -13234,13 +13234,13 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>Bio Lauch grün ca. 500g 3.50 Schweizer Franken</t>
+          <t>Bio Lauch grün ca. 500g - Online kein Bestand 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -13305,7 +13305,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -13378,7 +13378,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -13447,7 +13447,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -13520,7 +13520,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -13593,7 +13593,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -13658,7 +13658,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -13727,7 +13727,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -13800,7 +13800,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -13873,7 +13873,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -13940,7 +13940,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -14005,7 +14005,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -14074,7 +14074,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -14147,7 +14147,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -14218,7 +14218,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -14287,7 +14287,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -14360,7 +14360,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -14433,7 +14433,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -14496,7 +14496,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -14638,7 +14638,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -14711,7 +14711,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -14784,7 +14784,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -14857,7 +14857,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -14922,7 +14922,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -14991,7 +14991,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -15064,7 +15064,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -15137,7 +15137,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -15210,7 +15210,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -15275,7 +15275,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -15344,7 +15344,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -15417,7 +15417,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -15482,7 +15482,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -15551,7 +15551,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -15620,7 +15620,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -15689,7 +15689,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -15754,7 +15754,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -15823,7 +15823,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -15896,7 +15896,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -15969,7 +15969,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -16032,7 +16032,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -16101,7 +16101,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -16174,7 +16174,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -16247,7 +16247,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -16312,7 +16312,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -16385,7 +16385,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -16458,7 +16458,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -16531,7 +16531,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -16584,7 +16584,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -16657,7 +16657,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -16726,7 +16726,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -16795,7 +16795,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -16864,7 +16864,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -16933,7 +16933,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -17002,7 +17002,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -17067,7 +17067,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -17136,7 +17136,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -17209,7 +17209,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -17278,7 +17278,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -17351,7 +17351,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -17416,7 +17416,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -17489,7 +17489,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -17552,7 +17552,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -17619,7 +17619,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -17692,7 +17692,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -17757,7 +17757,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -17830,7 +17830,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -17899,7 +17899,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -17972,7 +17972,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -18045,7 +18045,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -18118,7 +18118,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -18183,7 +18183,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -18252,7 +18252,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -18325,7 +18325,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -18398,7 +18398,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -18467,45 +18467,41 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>4437751</t>
+          <t>6699491</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Pro Specie Rara Portulak</t>
+          <t>Snack Kastanien</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/pro-specie-rara-portulak/p/4437751</t>
+          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/snack-kastanien/p/6699491</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E265" t="n">
-        <v>4</v>
-      </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="F265" t="inlineStr"/>
       <c r="G265" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>2.95/100g</t>
+          <t>3.50/100g</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -18515,7 +18511,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -18525,52 +18521,56 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
         </is>
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>Pro Specie Rara Portulak 2.95 Schweizer Franken</t>
+          <t>Snack Kastanien 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>6699491</t>
+          <t>3432776</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Snack Kastanien</t>
+          <t>Betty Bossi Naturaplan Bio Gartensalat</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/snack-kastanien/p/6699491</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-naturaplan-bio-gartensalat/p/3432776</t>
         </is>
       </c>
       <c r="D266" t="n">
+        <v>88</v>
+      </c>
+      <c r="E266" t="n">
         <v>5</v>
       </c>
-      <c r="E266" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F266" t="inlineStr"/>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>3.50/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -18580,7 +18580,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -18590,42 +18590,44 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>Snack Kastanien 3.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N266" t="inlineStr"/>
+          <t>Betty Bossi Naturaplan Bio Gartensalat 3.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>3432776</t>
+          <t>6714133</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Gartensalat</t>
+          <t>Naturaplan Bio Kiwi</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-naturaplan-bio-gartensalat/p/3432776</t>
-        </is>
-      </c>
-      <c r="D267" t="n">
-        <v>88</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/kiwis-melonen/naturaplan-bio-kiwi/p/6714133</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr"/>
       <c r="E267" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -18634,12 +18636,12 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>0.72/100g</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -18649,7 +18651,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -18659,44 +18661,42 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'kiwis-melonen']</t>
         </is>
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Gartensalat 3.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N267" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Kiwi 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>6714133</t>
+          <t>4437751</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kiwi</t>
+          <t>Pro Specie Rara Portulak</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/kiwis-melonen/naturaplan-bio-kiwi/p/6714133</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/pro-specie-rara-portulak/p/4437751</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>2</v>
+      </c>
       <c r="E268" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -18705,12 +18705,12 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>0.72/100g</t>
+          <t>2.95/100g</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -18720,7 +18720,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -18730,18 +18730,18 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'kiwis-melonen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
         </is>
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kiwi 3.60 Schweizer Franken</t>
+          <t>Pro Specie Rara Portulak 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -18806,7 +18806,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -18879,7 +18879,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -18952,7 +18952,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -19021,7 +19021,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -19094,41 +19094,45 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>4227197</t>
+          <t>5868410</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Broccoli- &amp;amp; Blumenkohl-Röschen</t>
+          <t>Heringsstücke mit Randen MSC</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/broccoli-blumenkohl/broccoli-blumenkohl-roeschen/p/4227197</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/heringsstuecke-mit-randen-msc/p/5868410</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
       </c>
-      <c r="F274" t="inlineStr"/>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>0.99/100g</t>
+          <t>1.97/100g</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -19138,7 +19142,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -19148,56 +19152,56 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'broccoli-blumenkohl']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>Broccoli- &amp;amp; Blumenkohl-Röschen 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N274" t="inlineStr"/>
+          <t>Heringsstücke mit Randen MSC 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>5868410</t>
+          <t>4227197</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Heringsstücke mit Randen MSC</t>
+          <t>Broccoli- &amp;amp; Blumenkohl-Röschen</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/heringsstuecke-mit-randen-msc/p/5868410</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/broccoli-blumenkohl/broccoli-blumenkohl-roeschen/p/4227197</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+      <c r="F275" t="inlineStr"/>
       <c r="G275" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>1.97/100g</t>
+          <t>0.99/100g</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -19207,7 +19211,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -19217,22 +19221,18 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'broccoli-blumenkohl']</t>
         </is>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>Heringsstücke mit Randen MSC 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N275" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Broccoli- &amp;amp; Blumenkohl-Röschen 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -19305,7 +19305,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -19374,7 +19374,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -19443,7 +19443,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -19516,7 +19516,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -19585,7 +19585,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -19654,7 +19654,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -19723,7 +19723,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -19786,7 +19786,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -19855,7 +19855,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -19928,7 +19928,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -20001,7 +20001,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -20074,7 +20074,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -20147,7 +20147,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -20212,7 +20212,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -20277,7 +20277,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -20344,7 +20344,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -20413,7 +20413,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -20486,7 +20486,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -20551,7 +20551,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -20616,7 +20616,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -20681,7 +20681,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -20750,31 +20750,31 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>6316821</t>
+          <t>3090819</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Pro Specie Rara Campiuns Schwarzwurzel 500g</t>
+          <t>Baumnüsse Grenoble</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/pro-specie-rara-campiuns-schwarzwurzel/p/6316821</t>
+          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/baumnuesse-grenoble/p/3090819</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E298" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -20783,12 +20783,12 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>0.68/100g</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -20798,7 +20798,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -20808,42 +20808,42 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
         </is>
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>Pro Specie Rara Campiuns Schwarzwurzel 500g 4.50 Schweizer Franken</t>
+          <t>Baumnüsse Grenoble 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>3090819</t>
+          <t>6316821</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Baumnüsse Grenoble</t>
+          <t>Pro Specie Rara Campiuns Schwarzwurzel 500g</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/baumnuesse-grenoble/p/3090819</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/pro-specie-rara-campiuns-schwarzwurzel/p/6316821</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E299" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>0.68/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -20867,7 +20867,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -20877,44 +20877,48 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese']</t>
         </is>
       </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>Baumnüsse Grenoble 3.40 Schweizer Franken</t>
+          <t>Pro Specie Rara Campiuns Schwarzwurzel 500g 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>3368021</t>
+          <t>4617929</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Mini-Karotten</t>
+          <t>Délicorn Cordon bleu aus Seitan 2 Stück</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/rueebli-pastinaken/mini-karotten/p/3368021</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/delicorn-cordon-bleu-aus-seitan-2-stueck/p/4617929</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E300" t="n">
-        <v>3</v>
-      </c>
-      <c r="F300" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G300" t="inlineStr">
         <is>
           <t>4.95</t>
@@ -20922,7 +20926,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>2.48/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -20932,7 +20936,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -20942,56 +20946,56 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'rueebli-pastinaken']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>Mini-Karotten 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N300" t="inlineStr"/>
+          <t>Délicorn Cordon bleu aus Seitan 2 Stück 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N300" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>6638719</t>
+          <t>3368021</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Betty Bossi Hörnlisalat classic</t>
+          <t>Mini-Karotten</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-hoernlisalat-classic/p/6638719</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/rueebli-pastinaken/mini-karotten/p/3368021</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E301" t="n">
         <v>3</v>
       </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+      <c r="F301" t="inlineStr"/>
       <c r="G301" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>1.22/100g</t>
+          <t>2.48/100g</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -21001,7 +21005,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -21011,60 +21015,56 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'rueebli-pastinaken']</t>
         </is>
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>Betty Bossi Hörnlisalat classic 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N301" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Mini-Karotten 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>6466965</t>
+          <t>6638719</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Garden Gourmet vegane Filet-Stückchen</t>
+          <t>Betty Bossi Hörnlisalat classic</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/garden-gourmet-vegane-filet-stueckchen/p/6466965</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-hoernlisalat-classic/p/6638719</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E302" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>3.09/100g</t>
+          <t>1.22/100g</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -21074,7 +21074,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -21084,60 +21084,60 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>Garden Gourmet vegane Filet-Stückchen 25% ab 2 Stück Aktion 4.95 Schweizer Franken</t>
+          <t>Betty Bossi Hörnlisalat classic 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>4542934</t>
+          <t>6466965</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Mungbohnen-Sprossen</t>
+          <t>Garden Gourmet vegane Filet-Stückchen</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/sprossen-kresse/betty-bossi-naturaplan-bio-mungbohnen-sprossen/p/4542934</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/garden-gourmet-vegane-filet-stueckchen/p/6466965</t>
         </is>
       </c>
       <c r="D303" t="n">
         <v>23</v>
       </c>
       <c r="E303" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>0.88/100g</t>
+          <t>3.09/100g</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -21147,7 +21147,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -21157,46 +21157,46 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'sprossen-kresse']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Mungbohnen-Sprossen 2.20 Schweizer Franken</t>
+          <t>Garden Gourmet vegane Filet-Stückchen 25% ab 2 Stück Aktion 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>4617929</t>
+          <t>4542934</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Délicorn Cordon bleu aus Seitan 2 Stück</t>
+          <t>Betty Bossi Naturaplan Bio Mungbohnen-Sprossen</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/delicorn-cordon-bleu-aus-seitan-2-stueck/p/4617929</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/sprossen-kresse/betty-bossi-naturaplan-bio-mungbohnen-sprossen/p/4542934</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E304" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -21205,12 +21205,12 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>0.88/100g</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -21220,7 +21220,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -21230,22 +21230,22 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'sprossen-kresse']</t>
         </is>
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>Délicorn Cordon bleu aus Seitan 2 Stück 4.95 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Mungbohnen-Sprossen 2.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -21318,7 +21318,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -21391,7 +21391,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -21458,7 +21458,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -21523,7 +21523,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -21592,7 +21592,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -21665,7 +21665,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -21738,7 +21738,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -21811,7 +21811,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -21884,31 +21884,31 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>5982896</t>
+          <t>4069878</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Betty Bossi Fairtrade Früchte Mix</t>
+          <t>Fairtrade Kokosnuss 1 Stück</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/ananas-mangos/betty-bossi-fairtrade-fruechte-mix/p/5982896</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/fairtrade-kokosnuss-1-stueck/p/4069878</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E314" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -21917,71 +21917,67 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>2.53/100g</t>
+          <t>1.80/1ST</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'ananas-mangos']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
         </is>
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>Betty Bossi Fairtrade Früchte Mix 3.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N314" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Fairtrade Kokosnuss 1 Stück 1.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>4069878</t>
+          <t>5982896</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Fairtrade Kokosnuss 1 Stück</t>
+          <t>Betty Bossi Fairtrade Früchte Mix</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/fairtrade-kokosnuss-1-stueck/p/4069878</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/ananas-mangos/betty-bossi-fairtrade-fruechte-mix/p/5982896</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E315" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -21990,43 +21986,47 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>1.80/1ST</t>
+          <t>2.53/100g</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'ananas-mangos']</t>
         </is>
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>Fairtrade Kokosnuss 1 Stück 1.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N315" t="inlineStr"/>
+          <t>Betty Bossi Fairtrade Früchte Mix 3.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -22095,7 +22095,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -22158,13 +22158,13 @@
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Shiitake-Pilze ca. 100g 3.20 Schweizer Franken</t>
+          <t>Naturaplan Bio Shiitake-Pilze ca. 100g - Online kein Bestand 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -22237,7 +22237,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -22310,7 +22310,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -22383,7 +22383,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -22456,7 +22456,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -22529,7 +22529,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -22602,7 +22602,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -22675,7 +22675,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -22748,7 +22748,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -22821,7 +22821,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -22894,7 +22894,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -22967,7 +22967,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -23040,35 +23040,35 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>6723054</t>
+          <t>6079008</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Yolo Hot Dog Sausages 4x40g</t>
+          <t>Simply V Reibegenuss</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/yolo-hot-dog-sausages-4x40g/p/6723054</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/simply-v-reibegenuss/p/6079008</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E330" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>Simply V</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -23078,7 +23078,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>2.47/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -23088,7 +23088,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -23098,60 +23098,60 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate']</t>
         </is>
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>Yolo Hot Dog Sausages 4x40g 3.95 Schweizer Franken</t>
+          <t>Simply V Reibegenuss 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>6650171</t>
+          <t>6723054</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Rotkraut</t>
+          <t>Yolo Hot Dog Sausages 4x40g</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/naturaplan-bio-rotkraut/p/6650171</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/yolo-hot-dog-sausages-4x40g/p/6723054</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E331" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>0.74/100g</t>
+          <t>2.47/100g</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -23161,7 +23161,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -23171,56 +23171,60 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Rotkraut 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N331" t="inlineStr"/>
+          <t>Yolo Hot Dog Sausages 4x40g 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>6079008</t>
+          <t>6781641</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Simply V Reibegenuss</t>
+          <t>Beyond Hackbällchen</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/simply-v-reibegenuss/p/6079008</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/beyond-hackbaellchen/p/6781641</t>
         </is>
       </c>
       <c r="D332" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E332" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Simply V</t>
+          <t>BEYOND MEAT</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -23230,7 +23234,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -23240,60 +23244,60 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
         </is>
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>Simply V Reibegenuss 3.95 Schweizer Franken</t>
+          <t>Beyond Hackbällchen 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>6781641</t>
+          <t>6650171</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Beyond Hackbällchen</t>
+          <t>Naturaplan Bio Rotkraut</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/beyond-hackbaellchen/p/6781641</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/naturaplan-bio-rotkraut/p/6650171</t>
         </is>
       </c>
       <c r="D333" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>BEYOND MEAT</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>0.74/100g</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -23303,7 +23307,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -23313,22 +23317,18 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M333" t="inlineStr">
         <is>
-          <t>Beyond Hackbällchen 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N333" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Rotkraut 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -23397,7 +23397,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -23464,7 +23464,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -23537,7 +23537,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -23610,7 +23610,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -23675,7 +23675,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -23740,7 +23740,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -23805,7 +23805,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -23878,7 +23878,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -23947,7 +23947,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -24020,7 +24020,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -24093,7 +24093,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -24162,7 +24162,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -24235,7 +24235,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -24308,7 +24308,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -24361,7 +24361,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -24428,7 +24428,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -24501,7 +24501,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -24574,7 +24574,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -24647,7 +24647,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -24716,31 +24716,31 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>4083022</t>
+          <t>6875235</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Family Gemüsebox</t>
+          <t>Délicorn Würstli vegetarisch</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-family-gemuesebox/p/4083022</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/delicorn-wuerstli-vegetarisch/p/6875235</t>
         </is>
       </c>
       <c r="D354" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E354" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
@@ -24749,67 +24749,71 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>23.50</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>7.83/1kg</t>
+          <t>2.25/100g</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M354" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Family Gemüsebox 23.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N354" t="inlineStr"/>
+          <t>Délicorn Würstli vegetarisch 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N354" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>6875235</t>
+          <t>4083022</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Délicorn Würstli vegetarisch</t>
+          <t>Naturaplan Bio Family Gemüsebox</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/delicorn-wuerstli-vegetarisch/p/6875235</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-family-gemuesebox/p/4083022</t>
         </is>
       </c>
       <c r="D355" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E355" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
@@ -24818,47 +24822,43 @@
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>23.50</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>2.25/100g</t>
+          <t>7.83/1kg</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
         </is>
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>Délicorn Würstli vegetarisch 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N355" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Family Gemüsebox 23.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -24923,7 +24923,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -24996,7 +24996,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -25069,35 +25069,35 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>7024350</t>
+          <t>6508237</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Chunks</t>
+          <t>Garden Gourmet Sensational Gehacktes</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/the-green-mountain-plant-based-chunks/p/7024350</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/garden-gourmet-sensational-gehacktes/p/6508237</t>
         </is>
       </c>
       <c r="D359" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E359" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -25107,7 +25107,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>3.31/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -25117,7 +25117,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -25132,45 +25132,45 @@
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Chunks 5.95 Schweizer Franken</t>
+          <t>Garden Gourmet Sensational Gehacktes 25% ab 2 Aktion 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N359" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>6508237</t>
+          <t>7024350</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Gehacktes</t>
+          <t>The Green Mountain plant-based Chunks</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/garden-gourmet-sensational-gehacktes/p/6508237</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/the-green-mountain-plant-based-chunks/p/7024350</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E360" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
@@ -25180,7 +25180,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>3.31/100g</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -25190,7 +25190,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -25205,17 +25205,17 @@
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Gehacktes 25% ab 2 Aktion 5.95 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Chunks 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N360" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -25284,31 +25284,31 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>6961417</t>
+          <t>6764726</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Hörnlisalat</t>
+          <t>Prix Garantie Sauerkraut roh</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/naturaplan-bio-hoernlisalat/p/6961417</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/prix-garantie-sauerkraut-roh/p/6764726</t>
         </is>
       </c>
       <c r="D362" t="n">
         <v>2</v>
       </c>
       <c r="E362" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
@@ -25317,12 +25317,12 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>2.37/100g</t>
+          <t>0.30/100g</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -25332,7 +25332,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -25342,46 +25342,46 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Hörnlisalat 4.50 Schweizer Franken</t>
+          <t>Prix Garantie Sauerkraut roh 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>6764726</t>
+          <t>6961417</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Prix Garantie Sauerkraut roh</t>
+          <t>Naturaplan Bio Hörnlisalat</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/prix-garantie-sauerkraut-roh/p/6764726</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/naturaplan-bio-hoernlisalat/p/6961417</t>
         </is>
       </c>
       <c r="D363" t="n">
         <v>2</v>
       </c>
       <c r="E363" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F363" t="inlineStr">
         <is>
@@ -25390,12 +25390,12 @@
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>0.30/100g</t>
+          <t>2.37/100g</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -25405,7 +25405,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -25415,22 +25415,22 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t>Prix Garantie Sauerkraut roh 2.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Hörnlisalat 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -25503,7 +25503,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -25576,7 +25576,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -25645,7 +25645,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -25718,7 +25718,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -25789,45 +25789,41 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>6133999</t>
+          <t>6564002</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Betty Bossi Kürbis-Würfel</t>
+          <t>Radicchio di Treviso</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-kuerbis-wuerfel/p/6133999</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/radicchio-di-treviso/p/6564002</t>
         </is>
       </c>
       <c r="D369" t="n">
         <v>6</v>
       </c>
       <c r="E369" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F369" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F369" t="inlineStr"/>
       <c r="G369" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>0.83/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -25837,7 +25833,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -25847,60 +25843,56 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="M369" t="inlineStr">
         <is>
-          <t>Betty Bossi Kürbis-Würfel 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N369" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Radicchio di Treviso 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>6661982</t>
+          <t>6133999</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Fleischkäsealternative</t>
+          <t>Betty Bossi Kürbis-Würfel</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/the-green-mountain-plant-based-fleischkaesealternative/p/6661982</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-kuerbis-wuerfel/p/6133999</t>
         </is>
       </c>
       <c r="D370" t="n">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="E370" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>2.14/100g</t>
+          <t>0.83/100g</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -25910,7 +25902,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -25920,56 +25912,60 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Fleischkäsealternative 7.50 Schweizer Franken</t>
+          <t>Betty Bossi Kürbis-Würfel 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>6564002</t>
+          <t>6661982</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Radicchio di Treviso</t>
+          <t>The Green Mountain plant-based Fleischkäsealternative</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/radicchio-di-treviso/p/6564002</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/the-green-mountain-plant-based-fleischkaesealternative/p/6661982</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="E371" t="n">
         <v>4</v>
       </c>
-      <c r="F371" t="inlineStr"/>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>The GREEN MOUNTAIN</t>
+        </is>
+      </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>2.14/100g</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -25979,7 +25975,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -25989,18 +25985,22 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
         </is>
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>Radicchio di Treviso 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N371" t="inlineStr"/>
+          <t>The Green Mountain plant-based Fleischkäsealternative 7.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N371" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -26073,7 +26073,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -26146,7 +26146,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -26219,31 +26219,31 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>6638714</t>
+          <t>6509322</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Délicorn Curry Balls</t>
+          <t>Prix Garantie Baby Salat 8 Stück</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/delicorn-curry-balls/p/6638714</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/prix-garantie-baby-salat-8-stueck/p/6509322</t>
         </is>
       </c>
       <c r="D375" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E375" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
@@ -26252,71 +26252,65 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>3.48/100g</t>
+          <t>0.58/1ST</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="M375" t="inlineStr">
         <is>
-          <t>Délicorn Curry Balls 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N375" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Baby Salat 8 Stück 3.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>6509322</t>
+          <t>6076334</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Prix Garantie Baby Salat 8 Stück</t>
+          <t>Délicorn Schnitzel mit Käsefüllung</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/prix-garantie-baby-salat-8-stueck/p/6509322</t>
-        </is>
-      </c>
-      <c r="D376" t="n">
-        <v>10</v>
-      </c>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/delicorn-schnitzel-mit-kaesefuellung/p/6076334</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr"/>
       <c r="E376" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F376" t="inlineStr">
         <is>
@@ -26325,60 +26319,64 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>0.58/1ST</t>
+          <t>2.90/100g</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M376" t="inlineStr">
         <is>
-          <t>Prix Garantie Baby Salat 8 Stück 3.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N376" t="inlineStr"/>
+          <t>Délicorn Schnitzel mit Käsefüllung 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N376" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>6076334</t>
+          <t>6986266</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Délicorn Schnitzel mit Käsefüllung</t>
+          <t>Naturaplan Bio Rotkabis</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/delicorn-schnitzel-mit-kaesefuellung/p/6076334</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/naturaplan-bio-rotkabis/p/6986266</t>
         </is>
       </c>
       <c r="D377" t="inlineStr"/>
@@ -26392,12 +26390,12 @@
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>2.90/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -26407,7 +26405,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -26417,44 +26415,46 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M377" t="inlineStr">
         <is>
-          <t>Délicorn Schnitzel mit Käsefüllung 6.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Rotkabis 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>6986266</t>
+          <t>6638714</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Rotkabis</t>
+          <t>Délicorn Curry Balls</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/naturaplan-bio-rotkabis/p/6986266</t>
-        </is>
-      </c>
-      <c r="D378" t="inlineStr"/>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/delicorn-curry-balls/p/6638714</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>4</v>
+      </c>
       <c r="E378" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F378" t="inlineStr">
         <is>
@@ -26463,12 +26463,12 @@
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>3.48/100g</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -26478,7 +26478,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -26488,22 +26488,22 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Rotkabis 1.95 Schweizer Franken</t>
+          <t>Délicorn Curry Balls 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -26574,7 +26574,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -26643,7 +26643,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -26716,7 +26716,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -26781,7 +26781,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -26850,7 +26850,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -26923,7 +26923,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -26996,7 +26996,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -27065,24 +27065,24 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>7042413</t>
+          <t>6984842</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Max Havelaar Mango Large 1 Stück</t>
+          <t>Betty Bossi insalata tricolore</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/ananas-mangos/max-havelaar-mango-large-1-stueck/p/7042413</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-insalata-tricolore/p/6984842</t>
         </is>
       </c>
       <c r="D387" t="n">
@@ -27098,27 +27098,47 @@
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="H387" t="inlineStr"/>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>1.84/100g</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>100g</t>
+        </is>
+      </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'ananas-mangos']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>Max Havelaar Mango Large 1 Stück 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N387" t="inlineStr"/>
+          <t>Betty Bossi insalata tricolore 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N387" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian', 'gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -27183,24 +27203,24 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>6984842</t>
+          <t>7042413</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Betty Bossi insalata tricolore</t>
+          <t>Max Havelaar Mango Large 1 Stück</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-insalata-tricolore/p/6984842</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/ananas-mangos/max-havelaar-mango-large-1-stueck/p/7042413</t>
         </is>
       </c>
       <c r="D389" t="n">
@@ -27216,47 +27236,27 @@
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>1.84/100g</t>
-        </is>
-      </c>
-      <c r="I389" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J389" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr"/>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'ananas-mangos']</t>
         </is>
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>Betty Bossi insalata tricolore 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N389" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegetarian', 'gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Max Havelaar Mango Large 1 Stück 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -27321,7 +27321,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -27388,7 +27388,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -27457,7 +27457,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -27530,7 +27530,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -27603,7 +27603,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -27668,7 +27668,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -27741,7 +27741,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -27814,7 +27814,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -27887,7 +27887,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -27956,7 +27956,7 @@
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -28029,7 +28029,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -28098,7 +28098,7 @@
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -28165,7 +28165,7 @@
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -28238,7 +28238,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -28311,7 +28311,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -28384,7 +28384,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -28449,7 +28449,7 @@
       <c r="N406" t="inlineStr"/>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -28518,7 +28518,7 @@
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -28591,7 +28591,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -28656,7 +28656,7 @@
       <c r="N409" t="inlineStr"/>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -28729,7 +28729,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -28802,7 +28802,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -28867,7 +28867,7 @@
       <c r="N412" t="inlineStr"/>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -28934,7 +28934,7 @@
       <c r="N413" t="inlineStr"/>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -28987,7 +28987,7 @@
       <c r="N414" t="inlineStr"/>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -29060,7 +29060,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -29133,7 +29133,7 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -29200,7 +29200,7 @@
       <c r="N417" t="inlineStr"/>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -29273,7 +29273,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -29336,7 +29336,7 @@
       <c r="N419" t="inlineStr"/>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -29407,31 +29407,31 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>4434295</t>
+          <t>3090812</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Family Früchtebox</t>
+          <t>Erdnüsse</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-family-fruechtebox/p/4434295</t>
+          <t>/de/lebensmittel/suesses-snacks/chips-snacks/trockenfruechte-nuesse/nuesse-kerne/erdnuesse/p/3090812</t>
         </is>
       </c>
       <c r="D421" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E421" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F421" t="inlineStr">
         <is>
@@ -29440,67 +29440,67 @@
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>24.40</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>8.13/1kg</t>
+          <t>0.84/100g</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'chips-snacks', 'trockenfruechte-nuesse', 'nuesse-kerne']</t>
         </is>
       </c>
       <c r="M421" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Family Früchtebox 24.40 Schweizer Franken</t>
+          <t>Erdnüsse 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N421" t="inlineStr"/>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>3090812</t>
+          <t>4434295</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Erdnüsse</t>
+          <t>Naturaplan Bio Family Früchtebox</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/chips-snacks/trockenfruechte-nuesse/nuesse-kerne/erdnuesse/p/3090812</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-family-fruechtebox/p/4434295</t>
         </is>
       </c>
       <c r="D422" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E422" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F422" t="inlineStr">
         <is>
@@ -29509,183 +29509,183 @@
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>24.40</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>0.84/100g</t>
+          <t>8.13/1kg</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>8.13</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'chips-snacks', 'trockenfruechte-nuesse', 'nuesse-kerne']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
         </is>
       </c>
       <c r="M422" t="inlineStr">
         <is>
-          <t>Erdnüsse 2.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Family Früchtebox 24.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N422" t="inlineStr"/>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>6073361</t>
+          <t>6622887</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Saisonfrüchte Box</t>
+          <t>UMAMI Microgreens Powermix</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-saisonfruechte-box/p/6073361</t>
-        </is>
-      </c>
-      <c r="D423" t="n">
-        <v>23</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/frische-kraeuter/umami-microgreens-powermix/p/6622887</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr"/>
       <c r="E423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>UMAMI</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>6.67/1kg</t>
+          <t>19.80/100g</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>19.80</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'frische-kraeuter']</t>
         </is>
       </c>
       <c r="M423" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Saisonfrüchte Box 20.00 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N423" t="inlineStr"/>
+          <t>UMAMI Microgreens Powermix 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N423" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>6622887</t>
+          <t>6073361</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>UMAMI Microgreens Powermix</t>
+          <t>Naturaplan Bio Saisonfrüchte Box</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/frische-kraeuter/umami-microgreens-powermix/p/6622887</t>
-        </is>
-      </c>
-      <c r="D424" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-saisonfruechte-box/p/6073361</t>
+        </is>
+      </c>
+      <c r="D424" t="n">
+        <v>23</v>
+      </c>
       <c r="E424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>UMAMI</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>19.80/100g</t>
+          <t>6.67/1kg</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>19.80</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'frische-kraeuter']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
         </is>
       </c>
       <c r="M424" t="inlineStr">
         <is>
-          <t>UMAMI Microgreens Powermix 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N424" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Saisonfrüchte Box 20.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N424" t="inlineStr"/>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -29758,41 +29758,45 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>6081655</t>
+          <t>6722900</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Haselnüsse extra</t>
+          <t>The Green Mountain plant-based Bratwurstalternative</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/haselnuesse-extra/p/6081655</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/the-green-mountain-plant-based-bratwurstalternative/p/6722900</t>
         </is>
       </c>
       <c r="D426" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E426" t="n">
-        <v>5</v>
-      </c>
-      <c r="F426" t="inlineStr"/>
+        <v>3.5</v>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>The GREEN MOUNTAIN</t>
+        </is>
+      </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>1.19/100g</t>
+          <t>3.02/100g</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -29802,7 +29806,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -29812,56 +29816,56 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M426" t="inlineStr">
         <is>
-          <t>Haselnüsse extra 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N426" t="inlineStr"/>
+          <t>The Green Mountain plant-based Bratwurstalternative 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N426" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>6722900</t>
+          <t>6081655</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Bratwurstalternative</t>
+          <t>Haselnüsse extra</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/the-green-mountain-plant-based-bratwurstalternative/p/6722900</t>
+          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/haselnuesse-extra/p/6081655</t>
         </is>
       </c>
       <c r="D427" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F427" t="inlineStr">
-        <is>
-          <t>The GREEN MOUNTAIN</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F427" t="inlineStr"/>
       <c r="G427" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>3.02/100g</t>
+          <t>1.19/100g</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -29871,7 +29875,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -29881,22 +29885,18 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
         </is>
       </c>
       <c r="M427" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Bratwurstalternative 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N427" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Haselnüsse extra 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N427" t="inlineStr"/>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -29963,7 +29963,7 @@
       <c r="N428" t="inlineStr"/>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -30036,7 +30036,7 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -30109,7 +30109,7 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -30182,7 +30182,7 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -30255,7 +30255,7 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -30328,7 +30328,7 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -30401,7 +30401,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -30474,7 +30474,7 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -30543,7 +30543,7 @@
       <c r="N436" t="inlineStr"/>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -30616,7 +30616,7 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -30689,7 +30689,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -30746,7 +30746,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -30819,7 +30819,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -30892,7 +30892,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -30965,7 +30965,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -31030,7 +31030,7 @@
       <c r="N443" t="inlineStr"/>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -31095,7 +31095,7 @@
       <c r="N444" t="inlineStr"/>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -31168,7 +31168,7 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -31241,45 +31241,45 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>7027770</t>
+          <t>4482099</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Gulasch</t>
+          <t>Mönchsbart</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/the-green-mountain-plant-based-gulasch/p/7027770</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/frische-kraeuter/moenchsbart/p/4482099</t>
         </is>
       </c>
       <c r="D447" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E447" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.47/100g</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -31289,7 +31289,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -31299,60 +31299,56 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'frische-kraeuter']</t>
         </is>
       </c>
       <c r="M447" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Gulasch 7.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N447" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Mönchsbart 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N447" t="inlineStr"/>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>6962237</t>
+          <t>7027770</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Délicorn Bio Chili Würstli</t>
+          <t>The Green Mountain plant-based Gulasch</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/delicorn-bio-chili-wuerstli/p/6962237</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/the-green-mountain-plant-based-gulasch/p/7027770</t>
         </is>
       </c>
       <c r="D448" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E448" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
@@ -31362,7 +31358,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -31372,46 +31368,46 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M448" t="inlineStr">
         <is>
-          <t>Délicorn Bio Chili Würstli 5.95 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Gulasch 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N448" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>4482099</t>
+          <t>6962237</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Mönchsbart</t>
+          <t>Délicorn Bio Chili Würstli</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/frische-kraeuter/moenchsbart/p/4482099</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/delicorn-bio-chili-wuerstli/p/6962237</t>
         </is>
       </c>
       <c r="D449" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E449" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F449" t="inlineStr">
         <is>
@@ -31420,12 +31416,12 @@
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>1.47/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
@@ -31435,7 +31431,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -31445,18 +31441,22 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'frische-kraeuter']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M449" t="inlineStr">
         <is>
-          <t>Mönchsbart 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N449" t="inlineStr"/>
+          <t>Délicorn Bio Chili Würstli 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N449" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -31527,7 +31527,7 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -31600,7 +31600,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -31673,7 +31673,7 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -31746,7 +31746,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -31813,7 +31813,7 @@
       <c r="N454" t="inlineStr"/>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -31882,7 +31882,7 @@
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -31953,7 +31953,7 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -32026,7 +32026,7 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -32091,7 +32091,7 @@
       <c r="N458" t="inlineStr"/>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -32164,7 +32164,7 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -32233,7 +32233,7 @@
       <c r="N460" t="inlineStr"/>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -32304,43 +32304,45 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>6830613</t>
+          <t>4309899</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Yasai Koriander</t>
+          <t>Spargelspitzen grün 300g</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/frische-kraeuter/yasai-koriander/p/6830613</t>
-        </is>
-      </c>
-      <c r="D462" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/spargeln/spargelspitzen-gruen/p/4309899</t>
+        </is>
+      </c>
+      <c r="D462" t="n">
+        <v>13</v>
+      </c>
       <c r="E462" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>YASAI</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>14.75/100g</t>
+          <t>2.65/100g</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
@@ -32350,7 +32352,7 @@
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -32360,35 +32362,35 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'frische-kraeuter']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'spargeln']</t>
         </is>
       </c>
       <c r="M462" t="inlineStr">
         <is>
-          <t>Yasai Koriander 2.95 Schweizer Franken</t>
+          <t>Spargelspitzen grün 300g 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N462" t="inlineStr"/>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>7106934</t>
+          <t>6830613</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Yolo Crunchies</t>
+          <t>Yasai Koriander</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/yolo-crunchies/p/7106934</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/frische-kraeuter/yasai-koriander/p/6830613</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
@@ -32397,17 +32399,17 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>YASAI</t>
         </is>
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>2.90/100g</t>
+          <t>14.75/100g</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
@@ -32417,7 +32419,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -32427,60 +32429,52 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'frische-kraeuter']</t>
         </is>
       </c>
       <c r="M463" t="inlineStr">
         <is>
-          <t>Yolo Crunchies 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N463" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Yasai Koriander 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N463" t="inlineStr"/>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>6724256</t>
+          <t>4025403</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Steak</t>
+          <t>Spargelspitzen weiss</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/steaks-filets/the-green-mountain-plant-based-steak/p/6724256</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/spargeln/spargelspitzen-weiss/p/4025403</t>
         </is>
       </c>
       <c r="D464" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E464" t="n">
-        <v>3</v>
-      </c>
-      <c r="F464" t="inlineStr">
-        <is>
-          <t>The GREEN MOUNTAIN</t>
-        </is>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="F464" t="inlineStr"/>
       <c r="G464" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>4.75/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
@@ -32490,7 +32484,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -32500,60 +32494,56 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'steaks-filets']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'spargeln']</t>
         </is>
       </c>
       <c r="M464" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Steak 9.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N464" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Spargelspitzen weiss 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N464" t="inlineStr"/>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>4309899</t>
+          <t>6724256</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Spargelspitzen grün 300g</t>
+          <t>The Green Mountain plant-based Steak</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/spargeln/spargelspitzen-gruen/p/4309899</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/steaks-filets/the-green-mountain-plant-based-steak/p/6724256</t>
         </is>
       </c>
       <c r="D465" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E465" t="n">
         <v>3</v>
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>2.65/100g</t>
+          <t>4.75/100g</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -32563,7 +32553,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -32573,52 +32563,58 @@
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'spargeln']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'steaks-filets']</t>
         </is>
       </c>
       <c r="M465" t="inlineStr">
         <is>
-          <t>Spargelspitzen grün 300g 7.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N465" t="inlineStr"/>
+          <t>The Green Mountain plant-based Steak 9.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N465" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>4025403</t>
+          <t>7106934</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Spargelspitzen weiss</t>
+          <t>Yolo Crunchies</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/spargeln/spargelspitzen-weiss/p/4025403</t>
-        </is>
-      </c>
-      <c r="D466" t="n">
-        <v>15</v>
-      </c>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/yolo-crunchies/p/7106934</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr"/>
       <c r="E466" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F466" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>Yolo</t>
+        </is>
+      </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>2.90/100g</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -32628,7 +32624,7 @@
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -32638,18 +32634,22 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'spargeln']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
         </is>
       </c>
       <c r="M466" t="inlineStr">
         <is>
-          <t>Spargelspitzen weiss 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N466" t="inlineStr"/>
+          <t>Yolo Crunchies 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N466" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -32720,7 +32720,7 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -32791,7 +32791,7 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -32862,7 +32862,7 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
@@ -32925,141 +32925,188 @@
       <c r="N470" t="inlineStr"/>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>3091272</t>
+          <t>7040730</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Frühkartoffeln braune Linie</t>
+          <t>Bio Kürbis Butternuss klein Demeter Stück</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/naturaplan-bio-fruehkartoffeln-braune-linie/p/3091272</t>
-        </is>
-      </c>
-      <c r="D471" t="n">
-        <v>12</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/zucchetti-kuerbis-aubergine/bio-kuerbis-butternuss-klein-demeter-stueck/p/7040730</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr"/>
       <c r="E471" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F471" t="inlineStr">
         <is>
           <t>Coop</t>
         </is>
       </c>
-      <c r="G471" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>3.50/1kg</t>
-        </is>
-      </c>
-      <c r="I471" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Kilogramm</t>
-        </is>
-      </c>
-      <c r="J471" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>1kg</t>
-        </is>
-      </c>
+      <c r="G471" t="inlineStr"/>
+      <c r="H471" t="inlineStr"/>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'zucchetti-kuerbis-aubergine']</t>
         </is>
       </c>
       <c r="M471" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Frühkartoffeln braune Linie 3.50 Schweizer Franken</t>
+          <t>Bio Kürbis Butternuss klein Demeter Stück - Online kein Bestand</t>
         </is>
       </c>
       <c r="N471" t="inlineStr"/>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>4126978</t>
+          <t>3091272</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Spargeln grün extra-fein ca. 500g</t>
+          <t>Naturaplan Bio Frühkartoffeln braune Linie</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/spargeln/spargeln-gruen-extra-fein-ca/p/4126978</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/naturaplan-bio-fruehkartoffeln-braune-linie/p/3091272</t>
         </is>
       </c>
       <c r="D472" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E472" t="n">
-        <v>3</v>
-      </c>
-      <c r="F472" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>1.10/100g</t>
+          <t>3.50/1kg</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'spargeln']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
         </is>
       </c>
       <c r="M472" t="inlineStr">
         <is>
-          <t>Spargeln grün extra-fein ca. 500g 5.50 Schweizer Franken</t>
+          <t>Naturaplan Bio Frühkartoffeln braune Linie 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N472" t="inlineStr"/>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2023-02-14 13:00:28</t>
+          <t>2023-02-14 20:51:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>4126978</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Spargeln grün extra-fein ca. 500g</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/spargeln/spargeln-gruen-extra-fein-ca/p/4126978</t>
+        </is>
+      </c>
+      <c r="D473" t="n">
+        <v>7</v>
+      </c>
+      <c r="E473" t="n">
+        <v>3</v>
+      </c>
+      <c r="F473" t="inlineStr"/>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>1.10/100g</t>
+        </is>
+      </c>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>100g</t>
+        </is>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'spargeln']</t>
+        </is>
+      </c>
+      <c r="M473" t="inlineStr">
+        <is>
+          <t>Spargeln grün extra-fein ca. 500g 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N473" t="inlineStr"/>
+      <c r="O473" t="inlineStr">
+        <is>
+          <t>2023-02-14 20:51:59</t>
         </is>
       </c>
     </row>
